--- a/RANK_CMS(CO_201205--)/01_概要設計/システム設計.xlsx
+++ b/RANK_CMS(CO_201205--)/01_概要設計/システム設計.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1245" yWindow="1560" windowWidth="19470" windowHeight="11505" activeTab="2"/>
+    <workbookView xWindow="855" yWindow="1260" windowWidth="19470" windowHeight="11505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
     <sheet name="システム概要" sheetId="2" r:id="rId2"/>
-    <sheet name="外部仕様設計" sheetId="3" r:id="rId3"/>
+    <sheet name="画面遷移図" sheetId="3" r:id="rId3"/>
+    <sheet name="DB設計" sheetId="4" r:id="rId4"/>
+    <sheet name="ビジネスドメイン" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>システム設計書 目次</t>
     <rPh sb="4" eb="7">
@@ -242,6 +244,425 @@
     </rPh>
     <rPh sb="15" eb="16">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【カード情報】</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード名称</t>
+    <rPh sb="3" eb="5">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード会社</t>
+    <rPh sb="3" eb="5">
+      <t>ガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2年目以降</t>
+    <rPh sb="1" eb="3">
+      <t>ネンメ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年会費</t>
+    <rPh sb="0" eb="3">
+      <t>ネンカイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初年度</t>
+    <rPh sb="0" eb="3">
+      <t>ショネンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>国際ブランド</t>
+    <rPh sb="0" eb="2">
+      <t>コクサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JCB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VISA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MASTER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用限度額</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払方法</t>
+    <rPh sb="0" eb="2">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払日</t>
+    <rPh sb="0" eb="3">
+      <t>シハライビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>家族カード</t>
+    <rPh sb="0" eb="2">
+      <t>カゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発行枚数</t>
+    <rPh sb="0" eb="2">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>マイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本人カードと併せて支払い、等</t>
+    <rPh sb="0" eb="2">
+      <t>ホンニン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>締日</t>
+    <rPh sb="0" eb="2">
+      <t>シメビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払関連</t>
+    <rPh sb="0" eb="2">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付帯サービス</t>
+    <rPh sb="0" eb="2">
+      <t>フタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電子マネー</t>
+    <rPh sb="0" eb="2">
+      <t>デンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ETCカード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申し込み関連</t>
+    <rPh sb="0" eb="1">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発券スピード</t>
+    <rPh sb="0" eb="2">
+      <t>ハッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>申込み資格</t>
+    <rPh sb="0" eb="2">
+      <t>モウシコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード種類</t>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールド、ロードサービス、リボ払い専用、等</t>
+    <rPh sb="15" eb="16">
+      <t>バラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポイントプログラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>還元率、マイレージ互換、等</t>
+    <rPh sb="0" eb="2">
+      <t>カンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゴカン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保険やロードサービス等。
+これは、カード種類により本当にバラつく。
+メインコピー等に入れたいところ。</t>
+    <rPh sb="0" eb="2">
+      <t>ホケン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ホントウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付帯保険</t>
+    <rPh sb="0" eb="2">
+      <t>フタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショッピング アド 利率</t>
+    <rPh sb="10" eb="12">
+      <t>リリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショッピング リボ 利率</t>
+    <rPh sb="10" eb="12">
+      <t>リリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャッシング アド 利率</t>
+    <rPh sb="10" eb="12">
+      <t>リリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャッシング リボ 利率</t>
+    <rPh sb="10" eb="12">
+      <t>リリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カードの比較</t>
+    <rPh sb="4" eb="6">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用者の任意条件によるカードの比較を実現する。</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード情報は更新頻度が高いため、簡単に更新できるような仕組みを作る。</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒンド</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェブ分析サポート機能</t>
+    <rPh sb="3" eb="5">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファンダメンタル分析は、google アナリスティックにて行う。</t>
+    <rPh sb="8" eb="10">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>市場情報をより詳しく調査したり、市場の反応を調査したりする部分は、組み込みにて対応する。</t>
+    <rPh sb="0" eb="2">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -294,10 +715,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -324,8 +751,8 @@
     <xdr:to>
       <xdr:col>37</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -335,7 +762,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4914899" y="2047876"/>
-          <a:ext cx="5534025" cy="3895724"/>
+          <a:ext cx="5534025" cy="4352924"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -602,7 +1029,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2466975" cy="325730"/>
@@ -613,7 +1040,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1323975" y="4238625"/>
+          <a:off x="1323975" y="4067175"/>
           <a:ext cx="2466975" cy="325730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -689,13 +1116,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>141125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -720,7 +1147,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1809750" y="4629151"/>
+          <a:off x="1809750" y="4457701"/>
           <a:ext cx="466725" cy="655474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -744,13 +1171,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -775,7 +1202,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2305050" y="4714874"/>
+          <a:off x="2305050" y="4543424"/>
           <a:ext cx="619125" cy="619125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -799,13 +1226,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -830,7 +1257,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3105150" y="4629149"/>
+          <a:off x="3105150" y="4457699"/>
           <a:ext cx="733425" cy="733425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -977,13 +1404,4851 @@
                 </a:outerShdw>
               </a:effectLst>
             </a:rPr>
-            <a:t>２．コンテンツの管理／登録／編集</a:t>
+            <a:t>３．コンテンツの管理／登録／編集</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2466975" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733550" y="5276850"/>
+          <a:ext cx="2466975" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="flat" dir="tl">
+              <a:rot lat="0" lon="0" rev="6600000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d extrusionH="25400" contourW="8890">
+            <a:bevelT w="38100" h="31750"/>
+            <a:contourClr>
+              <a:schemeClr val="accent2">
+                <a:shade val="75000"/>
+              </a:schemeClr>
+            </a:contourClr>
+          </a:sp3d>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="11430"/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="70000"/>
+                      <a:satMod val="245000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="75000">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="90000"/>
+                      <a:shade val="60000"/>
+                      <a:satMod val="240000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="100000"/>
+                      <a:shade val="50000"/>
+                      <a:satMod val="240000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="39000" dir="5460000" algn="tl">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>２．カードの比較</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2971800" cy="325730"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6838950" y="3409950"/>
+          <a:ext cx="2971800" cy="325730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+          <a:scene3d>
+            <a:camera prst="orthographicFront"/>
+            <a:lightRig rig="flat" dir="tl">
+              <a:rot lat="0" lon="0" rev="6600000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d extrusionH="25400" contourW="8890">
+            <a:bevelT w="38100" h="31750"/>
+            <a:contourClr>
+              <a:schemeClr val="accent2">
+                <a:shade val="75000"/>
+              </a:schemeClr>
+            </a:contourClr>
+          </a:sp3d>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="1" cap="none" spc="0">
+              <a:ln w="11430"/>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="70000"/>
+                      <a:satMod val="245000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="75000">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="90000"/>
+                      <a:shade val="60000"/>
+                      <a:satMod val="240000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="100000"/>
+                      <a:shade val="50000"/>
+                      <a:satMod val="240000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000"/>
+              </a:gradFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="39000" dir="5460000" algn="tl">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="38000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>４．ウェブ分析サポート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>245966</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>253987</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>50986</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3589241" y="6945405"/>
+          <a:ext cx="1808246" cy="1335181"/>
+          <a:chOff x="2905124" y="590550"/>
+          <a:chExt cx="1812728" cy="1362075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="二等辺三角形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905125" y="1238250"/>
+            <a:ext cx="1812727" cy="714375"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905124" y="590550"/>
+            <a:ext cx="1800225" cy="1065296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086099" y="733425"/>
+            <a:ext cx="1419226" cy="781050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>管理者</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>TOP</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>70035</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>94689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>75814</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>58270</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="15243360" y="5923989"/>
+          <a:ext cx="1806004" cy="1335181"/>
+          <a:chOff x="2905124" y="590550"/>
+          <a:chExt cx="1812728" cy="1362075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="二等辺三角形 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905125" y="1238250"/>
+            <a:ext cx="1812727" cy="714375"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905124" y="590550"/>
+            <a:ext cx="1800225" cy="1065296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086099" y="733425"/>
+            <a:ext cx="1419226" cy="781050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>コンテンツ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>詳細</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>35858</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>41637</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>128867</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="グループ化 9"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4665008" y="1708336"/>
+          <a:ext cx="1806004" cy="1335181"/>
+          <a:chOff x="2905124" y="590550"/>
+          <a:chExt cx="1812728" cy="1362075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="二等辺三角形 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905125" y="1238250"/>
+            <a:ext cx="1812727" cy="714375"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905124" y="590550"/>
+            <a:ext cx="1800225" cy="1065296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086099" y="733425"/>
+            <a:ext cx="1419226" cy="781050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>コンテンツ</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>登録／編集</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>187136</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>5602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>141753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3530411" y="8749552"/>
+          <a:ext cx="2422714" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>・カード情報登録／編集</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>198342</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>82362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>155760</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>47063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="455517" y="7283262"/>
+          <a:ext cx="1757643" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>・ログイン認証</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>52666</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>58445</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>20731</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="グループ化 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="15225991" y="3657600"/>
+          <a:ext cx="1806004" cy="1335181"/>
+          <a:chOff x="2905124" y="590550"/>
+          <a:chExt cx="1812728" cy="1362075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="二等辺三角形 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905125" y="1238250"/>
+            <a:ext cx="1812727" cy="714375"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905124" y="590550"/>
+            <a:ext cx="1800225" cy="1065296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086099" y="733425"/>
+            <a:ext cx="1419226" cy="781050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>カード詳細</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>131668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>177229</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="グループ化 22"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11229975" y="5960968"/>
+          <a:ext cx="1806004" cy="1335181"/>
+          <a:chOff x="2905124" y="590550"/>
+          <a:chExt cx="1812728" cy="1362075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="二等辺三角形 23"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905125" y="1238250"/>
+            <a:ext cx="1812727" cy="714375"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905124" y="590550"/>
+            <a:ext cx="1800225" cy="1065296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086099" y="733425"/>
+            <a:ext cx="1419226" cy="781050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>サイトの説明</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166999</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>74456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>245966</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95186</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="101" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2224399" y="6246656"/>
+          <a:ext cx="1364842" cy="20730"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>164772</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>102470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>70035</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>139449</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+          <a:endCxn id="25" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13023522" y="5245970"/>
+          <a:ext cx="2219838" cy="36979"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>155196</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>122144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>225793</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>87405</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="円柱 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7613271" y="5094194"/>
+          <a:ext cx="1613647" cy="1165411"/>
+        </a:xfrm>
+        <a:prstGeom prst="can">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>41637</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>128867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>155196</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="4"/>
+          <a:endCxn id="33" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6471012" y="3043517"/>
+          <a:ext cx="1142259" cy="3833533"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>184144</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>20731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>195284</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>94689</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="20" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16128994" y="3792631"/>
+          <a:ext cx="11140" cy="931208"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139512</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>145291</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109257</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="45" name="グループ化 44"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="396687" y="1688726"/>
+          <a:ext cx="1806004" cy="1335181"/>
+          <a:chOff x="2905124" y="590550"/>
+          <a:chExt cx="1812728" cy="1362075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="二等辺三角形 45"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905125" y="1238250"/>
+            <a:ext cx="1812727" cy="714375"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905124" y="590550"/>
+            <a:ext cx="1800225" cy="1065296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086099" y="733425"/>
+            <a:ext cx="1419226" cy="781050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>カード会社</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>登録／編集</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>110937</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>117661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>155761</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="テキスト ボックス 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7826187" y="7661461"/>
+          <a:ext cx="2127438" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・管理者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・カード会社情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・カード情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・コンテンツ情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>93746</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>39781</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="73" name="グループ化 72"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11144250" y="3676650"/>
+          <a:ext cx="1808246" cy="1335181"/>
+          <a:chOff x="2905124" y="590550"/>
+          <a:chExt cx="1812728" cy="1362075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="二等辺三角形 73"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905125" y="1238250"/>
+            <a:ext cx="1812727" cy="714375"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="75" name="正方形/長方形 74"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905124" y="590550"/>
+            <a:ext cx="1800225" cy="1065296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="正方形/長方形 75"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086099" y="733425"/>
+            <a:ext cx="1419226" cy="781050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>TOP</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>81274</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>64931</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>52666</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83981</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直線矢印コネクタ 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="1"/>
+          <a:endCxn id="75" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12940024" y="2979581"/>
+          <a:ext cx="2285967" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>81274</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>195284</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>94689</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="0"/>
+          <a:endCxn id="75" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12940024" y="2998631"/>
+          <a:ext cx="3200110" cy="1725208"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>20731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>52667</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線矢印コネクタ 82"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13068300" y="3792631"/>
+          <a:ext cx="2157692" cy="1369919"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>225793</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>201513</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>58270</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直線矢印コネクタ 86"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="4"/>
+          <a:endCxn id="7" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9226918" y="6877050"/>
+          <a:ext cx="6919445" cy="382120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>225793</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>45753</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="直線矢印コネクタ 89"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="4"/>
+          <a:endCxn id="24" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9226918" y="6877050"/>
+          <a:ext cx="2906060" cy="419099"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>225793</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>20731</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>184144</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="直線矢印コネクタ 92"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="4"/>
+          <a:endCxn id="20" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9226918" y="4992781"/>
+          <a:ext cx="6902076" cy="1884269"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>225793</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>39781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>218324</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="直線矢印コネクタ 93"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="4"/>
+          <a:endCxn id="74" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9226918" y="5011831"/>
+          <a:ext cx="2821456" cy="1865219"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>179471</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>30256</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="99" name="グループ化 98"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="428625" y="6924675"/>
+          <a:ext cx="1808246" cy="1335181"/>
+          <a:chOff x="2905124" y="590550"/>
+          <a:chExt cx="1812728" cy="1362075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="100" name="二等辺三角形 99"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905125" y="1238250"/>
+            <a:ext cx="1812727" cy="714375"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="101" name="正方形/長方形 100"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905124" y="590550"/>
+            <a:ext cx="1800225" cy="1065296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="102" name="正方形/長方形 101"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086099" y="733425"/>
+            <a:ext cx="1419226" cy="781050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ログイン</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>155760</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>155196</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>64713</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="直線矢印コネクタ 105"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="17" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2213160" y="5676900"/>
+          <a:ext cx="5400111" cy="1760163"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="テキスト ボックス 111"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="7734300"/>
+          <a:ext cx="1809750" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OAUTH</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>＋独自管理者情報にて認証</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（管理者の登録機能は持たない。）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="図 114" descr="http://www.google.com/logos/2009/elmo-hp.gif"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="209550" y="9067800"/>
+          <a:ext cx="2381250" cy="1247775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="292100" dist="139700" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="333333">
+              <a:alpha val="65000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="直線矢印コネクタ 115"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="115" idx="0"/>
+          <a:endCxn id="112" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1400175" y="8610600"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>136151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="テキスト ボックス 124"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="2057400"/>
+          <a:ext cx="2066925" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・基本情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>69476</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="テキスト ボックス 125"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="2505075"/>
+          <a:ext cx="2085975" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ポイントプログラム登録</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>208046</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87406</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="127" name="グループ化 126"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2514600" y="1666875"/>
+          <a:ext cx="1808246" cy="1335181"/>
+          <a:chOff x="2905124" y="590550"/>
+          <a:chExt cx="1812728" cy="1362075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="128" name="二等辺三角形 127"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905125" y="1238250"/>
+            <a:ext cx="1812727" cy="714375"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="129" name="正方形/長方形 128"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905124" y="590550"/>
+            <a:ext cx="1800225" cy="1065296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="130" name="正方形/長方形 129"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086099" y="733425"/>
+            <a:ext cx="1419226" cy="781050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>カード情報</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>登録／編集</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>136151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="テキスト ボックス 134"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2581275" y="3257550"/>
+          <a:ext cx="1757643" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・基本情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>79001</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="テキスト ボックス 135"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590801" y="3714750"/>
+          <a:ext cx="1676400" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・メインコピー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>110554</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>58831</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="149" name="グループ化 148"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="15278100" y="1466850"/>
+          <a:ext cx="1806004" cy="1335181"/>
+          <a:chOff x="2905124" y="590550"/>
+          <a:chExt cx="1812728" cy="1362075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="150" name="二等辺三角形 149"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905125" y="1238250"/>
+            <a:ext cx="1812727" cy="714375"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="151" name="正方形/長方形 150"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905124" y="590550"/>
+            <a:ext cx="1800225" cy="1065296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="152" name="正方形/長方形 151"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086099" y="733425"/>
+            <a:ext cx="1419226" cy="781050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>カード比較</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>81979</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>58831</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="153" name="グループ化 152"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11134725" y="1466850"/>
+          <a:ext cx="1806004" cy="1335181"/>
+          <a:chOff x="2905124" y="590550"/>
+          <a:chExt cx="1812728" cy="1362075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="154" name="二等辺三角形 153"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905125" y="1238250"/>
+            <a:ext cx="1812727" cy="714375"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="155" name="正方形/長方形 154"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905124" y="590550"/>
+            <a:ext cx="1800225" cy="1065296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="156" name="正方形/長方形 155"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086099" y="733425"/>
+            <a:ext cx="1419226" cy="781050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>カード検索</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>207678</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>58831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>212087</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="直線矢印コネクタ 156"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="154" idx="3"/>
+          <a:endCxn id="75" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12037728" y="1601881"/>
+          <a:ext cx="4409" cy="874619"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>69522</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>53732</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152940</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="161" name="直線矢印コネクタ 160"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="155" idx="3"/>
+          <a:endCxn id="164" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12928272" y="788831"/>
+          <a:ext cx="755735" cy="221359"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>115423</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71158</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="フローチャート : 結合子 163"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13496925" y="847725"/>
+          <a:ext cx="1277473" cy="1109383"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>比較</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>スタック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>185516</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>177915</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="165" name="直線矢印コネクタ 164"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="0"/>
+          <a:endCxn id="164" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="14587316" y="1794643"/>
+          <a:ext cx="1535449" cy="662807"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>185516</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152940</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="168" name="直線矢印コネクタ 167"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="151" idx="1"/>
+          <a:endCxn id="164" idx="7"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14587316" y="788831"/>
+          <a:ext cx="690784" cy="221359"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>71718</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="テキスト ボックス 85"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13230225" y="4238625"/>
+          <a:ext cx="1757643" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>相互リンクは固定画面（フレームリンク）にて対応</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>233643</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="テキスト ボックス 171"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13134975" y="2295525"/>
+          <a:ext cx="1757643" cy="542926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>AJAX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>にて実装（ショッピングカートみたいに）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+            <a:t>WebStrage</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
+            <a:t>にため込む</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>212087</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>80143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>53732</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="173" name="直線矢印コネクタ 172"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="0"/>
+          <a:endCxn id="164" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12042137" y="1794643"/>
+          <a:ext cx="1641870" cy="681857"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>136151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="テキスト ボックス 180"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17230725" y="2571750"/>
+          <a:ext cx="2333625" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>・メインコピー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>69476</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="テキスト ボックス 181"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17240250" y="3019425"/>
+          <a:ext cx="2314575" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>・基本情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="183" name="テキスト ボックス 182"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17230725" y="3438525"/>
+          <a:ext cx="2362200" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>・ポイント計算シミュレータ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>117101</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="テキスト ボックス 91"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="333375" y="2895600"/>
+          <a:ext cx="2085975" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・主要サービス概要登録</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>21851</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="テキスト ボックス 94"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="3314700"/>
+          <a:ext cx="2085975" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・共通付帯サービス登録</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214593</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>136151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="テキスト ボックス 95"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="2914650"/>
+          <a:ext cx="1757643" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・付帯サービス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214593</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>136151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="テキスト ボックス 96"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="3257550"/>
+          <a:ext cx="1757643" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" strike="sngStrike" baseline="0"/>
+            <a:t>・キャンペーン</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" strike="sngStrike" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>214593</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>164726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="テキスト ボックス 97"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="3629025"/>
+          <a:ext cx="1757643" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・アフェリリンク</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>50426</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="テキスト ボックス 103"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="9172575"/>
+          <a:ext cx="2371725" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>・会社情報登録／編集</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>214593</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>136151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="テキスト ボックス 104"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="3257550"/>
+          <a:ext cx="1757643" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・タグ登録／削除</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>214593</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>136151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="107" name="テキスト ボックス 106"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="3600450"/>
+          <a:ext cx="1757643" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・コンテンツ枠</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>214593</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>40901</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="テキスト ボックス 107"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="4019550"/>
+          <a:ext cx="1757643" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・コンテンツ（本文）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13815</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>115153</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87405</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="直線矢印コネクタ 108"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="3"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1299690" y="3023907"/>
+          <a:ext cx="3187438" cy="3921498"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>75449</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>115153</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87405</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直線矢印コネクタ 109"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="128" idx="3"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3418724" y="3002056"/>
+          <a:ext cx="1068404" cy="3943349"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>115153</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>128867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>167336</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87405</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="直線矢印コネクタ 112"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4487128" y="3043517"/>
+          <a:ext cx="1080883" cy="3901888"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>208046</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>155196</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="直線矢印コネクタ 116"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="128" idx="4"/>
+          <a:endCxn id="33" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4322846" y="3002056"/>
+          <a:ext cx="3290425" cy="3874994"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>145291</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>155196</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="直線矢印コネクタ 117"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="46" idx="4"/>
+          <a:endCxn id="33" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2202691" y="3023907"/>
+          <a:ext cx="5410580" cy="3853143"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="テキスト ボックス 120"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3543300" y="9610725"/>
+          <a:ext cx="2419350" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>・コンテンツ登録／編集</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1342,10 +6607,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C47"/>
+  <dimension ref="B2:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1388,12 +6653,48 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1407,8 +6708,319 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="Y55" sqref="Y55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="4" max="4" width="40.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="C40" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/RANK_CMS(CO_201205--)/01_概要設計/システム設計.xlsx
+++ b/RANK_CMS(CO_201205--)/01_概要設計/システム設計.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="1260" windowWidth="19470" windowHeight="11505" activeTab="2"/>
+    <workbookView xWindow="855" yWindow="1260" windowWidth="19470" windowHeight="11505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>システム設計書 目次</t>
     <rPh sb="4" eb="7">
@@ -258,13 +258,6 @@
     <t>カード名称</t>
     <rPh sb="3" eb="5">
       <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カード会社</t>
-    <rPh sb="3" eb="5">
-      <t>ガイシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -663,6 +656,50 @@
     </rPh>
     <rPh sb="39" eb="41">
       <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【カード会社】</t>
+    <rPh sb="4" eb="6">
+      <t>ガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[カード会社]</t>
+    <rPh sb="4" eb="6">
+      <t>ガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通付帯サービス</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインコピー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制作したHTMLを挿入？Or定型的に派手に。</t>
+    <rPh sb="0" eb="2">
+      <t>セイサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>テイケイテキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ハデ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6653,12 +6690,12 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.15">
@@ -6676,7 +6713,7 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.15">
@@ -6684,17 +6721,17 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -6708,8 +6745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="Y55" sqref="Y55"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AO54" sqref="AO54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6722,16 +6759,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D40"/>
+  <dimension ref="B2:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="40.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6751,32 +6788,32 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -6784,20 +6821,20 @@
     <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -6805,39 +6842,43 @@
     <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
@@ -6848,61 +6889,61 @@
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>37</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D23" s="3"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="B25" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.15">
@@ -6913,100 +6954,121 @@
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="B33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="3"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B37" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="B39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -7020,7 +7082,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/RANK_CMS(CO_201205--)/01_概要設計/システム設計.xlsx
+++ b/RANK_CMS(CO_201205--)/01_概要設計/システム設計.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
   <si>
     <t>システム設計書 目次</t>
     <rPh sb="4" eb="7">
@@ -701,6 +701,10 @@
     <rPh sb="18" eb="20">
       <t>ハデ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6759,10 +6763,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D43"/>
+  <dimension ref="B2:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6881,28 +6885,31 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="3"/>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>31</v>
@@ -6911,84 +6918,84 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
         <v>55</v>

--- a/RANK_CMS(CO_201205--)/01_概要設計/システム設計.xlsx
+++ b/RANK_CMS(CO_201205--)/01_概要設計/システム設計.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>システム設計書 目次</t>
     <rPh sb="4" eb="7">
@@ -705,6 +705,10 @@
   </si>
   <si>
     <t>　　　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6763,7 +6767,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E43"/>
+  <dimension ref="B2:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -6885,14 +6889,14 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
         <v>34</v>
@@ -6902,14 +6906,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>31</v>
@@ -6918,84 +6922,87 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
         <v>51</v>
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
         <v>55</v>

--- a/RANK_CMS(CO_201205--)/01_概要設計/システム設計.xlsx
+++ b/RANK_CMS(CO_201205--)/01_概要設計/システム設計.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="1260" windowWidth="19470" windowHeight="11505" activeTab="3"/>
+    <workbookView xWindow="855" yWindow="1260" windowWidth="19470" windowHeight="11505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
     <sheet name="システム概要" sheetId="2" r:id="rId2"/>
     <sheet name="画面遷移図" sheetId="3" r:id="rId3"/>
-    <sheet name="DB設計" sheetId="4" r:id="rId4"/>
+    <sheet name="DB設計（論理）" sheetId="4" r:id="rId4"/>
     <sheet name="ビジネスドメイン" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>システム設計書 目次</t>
     <rPh sb="4" eb="7">
@@ -460,10 +460,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ポイントプログラム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>還元率、マイレージ互換、等</t>
     <rPh sb="0" eb="2">
       <t>カンゲン</t>
@@ -709,6 +705,103 @@
   </si>
   <si>
     <t>　　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>level1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>level2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>level1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制御情報</t>
+    <rPh sb="0" eb="2">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日付</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新日付</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[ポイントプログラム]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付帯国際ブランド</t>
+    <rPh sb="0" eb="2">
+      <t>フタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コクサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード会社の利用可能国際ブランドと紐づける</t>
+    <rPh sb="3" eb="5">
+      <t>ガイシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コクサイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ヒモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アフェリ情報</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アフェリ会社</t>
+    <rPh sb="4" eb="6">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アフェリリンク</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -774,7 +867,38 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1637,6 +1761,172 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>253429</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="133" name="グループ化 132"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9505950" y="3800475"/>
+          <a:ext cx="1806004" cy="1335181"/>
+          <a:chOff x="2905124" y="590550"/>
+          <a:chExt cx="1812728" cy="1362075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="134" name="二等辺三角形 133"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905125" y="1238250"/>
+            <a:ext cx="1812727" cy="714375"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="137" name="正方形/長方形 136"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905124" y="590550"/>
+            <a:ext cx="1800225" cy="1065296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="138" name="正方形/長方形 137"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086099" y="733425"/>
+            <a:ext cx="1419226" cy="781050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>更新</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>pull</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>登録</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>245966</xdr:colOff>
       <xdr:row>40</xdr:row>
@@ -1797,13 +2087,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>70035</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>94689</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>75814</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>58270</xdr:rowOff>
@@ -1815,7 +2105,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15243360" y="5923989"/>
+          <a:off x="17557935" y="5923989"/>
           <a:ext cx="1806004" cy="1335181"/>
           <a:chOff x="2905124" y="590550"/>
           <a:chExt cx="1812728" cy="1362075"/>
@@ -2251,13 +2541,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>52666</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>58445</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>20731</xdr:rowOff>
@@ -2269,7 +2559,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15225991" y="3657600"/>
+          <a:off x="17540566" y="3657600"/>
           <a:ext cx="1806004" cy="1335181"/>
           <a:chOff x="2905124" y="590550"/>
           <a:chExt cx="1812728" cy="1362075"/>
@@ -2398,13 +2688,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>131668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>177229</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
@@ -2416,7 +2706,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11229975" y="5960968"/>
+          <a:off x="13544550" y="5960968"/>
           <a:ext cx="1806004" cy="1335181"/>
           <a:chOff x="2905124" y="590550"/>
           <a:chExt cx="1812728" cy="1362075"/>
@@ -2601,13 +2891,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>164772</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>102470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>70035</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>139449</xdr:rowOff>
@@ -2657,13 +2947,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>155196</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>122144</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>225793</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>87405</xdr:rowOff>
@@ -2717,7 +3007,7 @@
       <xdr:rowOff>128867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>155196</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -2761,13 +3051,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>62</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>184144</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>20731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>195284</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>94689</xdr:rowOff>
@@ -2980,13 +3270,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>39</xdr:col>
       <xdr:colOff>110937</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>117661</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
+      <xdr:col>47</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>155761</xdr:rowOff>
@@ -3070,13 +3360,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>93746</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>39781</xdr:rowOff>
@@ -3088,7 +3378,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11144250" y="3676650"/>
+          <a:off x="13458825" y="3676650"/>
           <a:ext cx="1808246" cy="1335181"/>
           <a:chOff x="2905124" y="590550"/>
           <a:chExt cx="1812728" cy="1362075"/>
@@ -3222,13 +3512,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>81274</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>64931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>52666</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>83981</xdr:rowOff>
@@ -3278,13 +3568,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>81274</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>83981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>195284</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>94689</xdr:rowOff>
@@ -3335,13 +3625,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>20731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>52667</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -3391,13 +3681,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>225793</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>201513</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>58270</xdr:rowOff>
@@ -3442,13 +3732,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>225793</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>45753</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
@@ -3493,13 +3783,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>225793</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>20731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>184144</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -3544,13 +3834,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>35</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>225793</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>39781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>218324</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -3748,7 +4038,7 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>155196</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>64713</xdr:rowOff>
@@ -4402,13 +4692,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
+      <xdr:col>75</xdr:col>
       <xdr:colOff>110554</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>58831</xdr:rowOff>
@@ -4420,7 +4710,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="15278100" y="1466850"/>
+          <a:off x="17592675" y="1466850"/>
           <a:ext cx="1806004" cy="1335181"/>
           <a:chOff x="2905124" y="590550"/>
           <a:chExt cx="1812728" cy="1362075"/>
@@ -4549,13 +4839,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
+      <xdr:col>52</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>50</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>81979</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>58831</xdr:rowOff>
@@ -4567,7 +4857,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11134725" y="1466850"/>
+          <a:off x="13449300" y="1466850"/>
           <a:ext cx="1806004" cy="1335181"/>
           <a:chOff x="2905124" y="590550"/>
           <a:chExt cx="1812728" cy="1362075"/>
@@ -4696,13 +4986,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>207678</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>58831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>212087</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -4752,13 +5042,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
+      <xdr:col>59</xdr:col>
       <xdr:colOff>69522</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>103031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>53732</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>152940</xdr:rowOff>
@@ -4808,13 +5098,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>52</xdr:col>
+      <xdr:col>61</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>115423</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>71158</xdr:rowOff>
@@ -4883,13 +5173,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>185516</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>80143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>62</xdr:col>
+      <xdr:col>71</xdr:col>
       <xdr:colOff>177915</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -4939,13 +5229,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>185516</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>103031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
+      <xdr:col>68</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>152940</xdr:rowOff>
@@ -4995,13 +5285,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
+      <xdr:col>67</xdr:col>
       <xdr:colOff>71718</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
@@ -5056,13 +5346,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>60</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
+      <xdr:col>66</xdr:col>
       <xdr:colOff>233643</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
@@ -5140,13 +5430,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>212087</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>80143</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
+      <xdr:col>62</xdr:col>
       <xdr:colOff>53732</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -5196,13 +5486,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>67</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
+      <xdr:col>85</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>136151</xdr:rowOff>
@@ -5260,13 +5550,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>67</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
+      <xdr:col>85</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>69476</xdr:rowOff>
@@ -5324,13 +5614,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>67</xdr:col>
+      <xdr:col>76</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
+      <xdr:col>85</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
@@ -6138,7 +6428,7 @@
       <xdr:rowOff>87406</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>155196</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -6188,7 +6478,7 @@
       <xdr:rowOff>109257</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>38</xdr:col>
       <xdr:colOff>155196</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -6294,7 +6584,589 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>136151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="テキスト ボックス 102"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562350" y="10115550"/>
+          <a:ext cx="2533650" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>・カード各社の最新情報表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>155201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="テキスト ボックス 110"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3581400" y="10648950"/>
+          <a:ext cx="2533650" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>・アフィ各社のメール等表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="円形吹き出し 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="8143875"/>
+          <a:ext cx="2571750" cy="1133475"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -102561"/>
+            <a:gd name="adj2" fmla="val -113971"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>各種最新情報を閲覧しつつ更新できるコンソールにする！</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>207308</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>213087</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="114" name="グループ化 113"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9465608" y="1762125"/>
+          <a:ext cx="1806004" cy="1335181"/>
+          <a:chOff x="2905124" y="590550"/>
+          <a:chExt cx="1812728" cy="1362075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="119" name="二等辺三角形 118"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905125" y="1238250"/>
+            <a:ext cx="1812727" cy="714375"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="120" name="正方形/長方形 119"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905124" y="590550"/>
+            <a:ext cx="1800225" cy="1065296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="122" name="正方形/長方形 121"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086099" y="733425"/>
+            <a:ext cx="1419226" cy="781050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>分析情報</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>136151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="テキスト ボックス 131"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="11144250"/>
+          <a:ext cx="2533650" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>・更新</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+            <a:t>pull</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>情報表示</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>234379</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163606</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="139" name="グループ化 138"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7172325" y="1743075"/>
+          <a:ext cx="1806004" cy="1335181"/>
+          <a:chOff x="2905124" y="590550"/>
+          <a:chExt cx="1812728" cy="1362075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="140" name="二等辺三角形 139"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905125" y="1238250"/>
+            <a:ext cx="1812727" cy="714375"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="141" name="正方形/長方形 140"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905124" y="590550"/>
+            <a:ext cx="1800225" cy="1065296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="142" name="正方形/長方形 141"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086099" y="733425"/>
+            <a:ext cx="1419226" cy="781050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent4"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>アフェリ情報</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>登録／編集</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="B3:D40" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+  <autoFilter ref="B3:D40"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="level1" dataDxfId="9"/>
+    <tableColumn id="2" name="level2" dataDxfId="8"/>
+    <tableColumn id="3" name="memo" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル3" displayName="テーブル3" ref="F3:H16" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="F3:H16"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="level1" dataDxfId="4"/>
+    <tableColumn id="2" name="level2" dataDxfId="3"/>
+    <tableColumn id="3" name="memo" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6698,12 +7570,12 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.15">
@@ -6721,7 +7593,7 @@
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.15">
@@ -6729,17 +7601,17 @@
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -6753,8 +7625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AO54" sqref="AO54"/>
+    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
+      <selection activeCell="AC59" sqref="AC59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6767,10 +7639,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F43"/>
+  <dimension ref="B2:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6778,199 +7650,284 @@
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="40.125" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="D5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="3"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="3"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="3"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="3"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="3"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D19" s="3"/>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="F21" t="s">
-        <v>68</v>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="B24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B25" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -6980,6 +7937,9 @@
         <v>51</v>
       </c>
       <c r="D28" s="3"/>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
@@ -7003,91 +7963,78 @@
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="3" t="s">
+    <row r="33" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="34" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="B35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B37" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="B38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B39" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/RANK_CMS(CO_201205--)/01_概要設計/システム設計.xlsx
+++ b/RANK_CMS(CO_201205--)/01_概要設計/システム設計.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="1260" windowWidth="19470" windowHeight="11505" activeTab="2"/>
+    <workbookView xWindow="855" yWindow="1260" windowWidth="19470" windowHeight="11505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目次" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
   <si>
     <t>システム設計書 目次</t>
     <rPh sb="4" eb="7">
@@ -802,6 +802,140 @@
   </si>
   <si>
     <t>アフェリリンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社名称</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインコピー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社URL</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カード支払方法のスタック</t>
+    <rPh sb="3" eb="5">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払方法*</t>
+    <rPh sb="0" eb="2">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>* ・・・ 繰り返し項目</t>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[] ・・・ 正規化項目</t>
+    <rPh sb="7" eb="10">
+      <t>セイキカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[キャンペーン情報]</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【ポイントプログラム】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他売り文句</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モンク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>付帯保障</t>
+    <rPh sb="0" eb="2">
+      <t>フタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅行保険、生活保険等、カード種類によってバラつく</t>
+    <rPh sb="0" eb="2">
+      <t>リョコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホケン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイカツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホケン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公式URL</t>
+    <rPh sb="0" eb="2">
+      <t>コウシキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -867,7 +1001,22 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="15">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1761,16 +1910,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>253429</xdr:colOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>81979</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>163606</xdr:rowOff>
+      <xdr:rowOff>135031</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1779,7 +1928,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9505950" y="3800475"/>
+          <a:off x="11391900" y="3771900"/>
           <a:ext cx="1806004" cy="1335181"/>
           <a:chOff x="2905124" y="590550"/>
           <a:chExt cx="1812728" cy="1362075"/>
@@ -3029,6 +3178,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -6450,6 +6600,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -6500,6 +6651,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:headEnd type="arrow"/>
           <a:tailEnd type="arrow"/>
         </a:ln>
       </xdr:spPr>
@@ -6768,16 +6920,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>207308</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>35858</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>213087</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>41637</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>154081</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6786,7 +6938,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9465608" y="1762125"/>
+          <a:off x="11351558" y="1733550"/>
           <a:ext cx="1806004" cy="1335181"/>
           <a:chOff x="2905124" y="590550"/>
           <a:chExt cx="1812728" cy="1362075"/>
@@ -6981,16 +7133,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>234379</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>62929</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>163606</xdr:rowOff>
+      <xdr:rowOff>135031</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6999,7 +7151,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7172325" y="1743075"/>
+          <a:off x="9058275" y="1714500"/>
           <a:ext cx="1806004" cy="1335181"/>
           <a:chOff x="2905124" y="590550"/>
           <a:chExt cx="1812728" cy="1362075"/>
@@ -7142,28 +7294,378 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>46121</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>154081</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="123" name="グループ化 122"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6724650" y="1733550"/>
+          <a:ext cx="1808246" cy="1335181"/>
+          <a:chOff x="2905124" y="590550"/>
+          <a:chExt cx="1812728" cy="1362075"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="124" name="二等辺三角形 123"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905125" y="1238250"/>
+            <a:ext cx="1812727" cy="714375"/>
+          </a:xfrm>
+          <a:prstGeom prst="triangle">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="131" name="正方形/長方形 130"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2905124" y="590550"/>
+            <a:ext cx="1800225" cy="1065296"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="143" name="正方形/長方形 142"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3086099" y="733425"/>
+            <a:ext cx="1419226" cy="781050"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="3">
+            <a:schemeClr val="lt1"/>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="accent6"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>キャンペーン</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FFFF00"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>登録／編集</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>136151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="テキスト ボックス 144"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943725" y="3257550"/>
+          <a:ext cx="1676400" cy="307601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・キャンペーン登録</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>155196</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="146" name="直線矢印コネクタ 145"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="33" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8391525" y="3114675"/>
+          <a:ext cx="1536321" cy="3762375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>115153</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>154081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>170699</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>87405</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="直線矢印コネクタ 146"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="124" idx="3"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4487128" y="3068731"/>
+          <a:ext cx="3141646" cy="3876674"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="B3:D40" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
-  <autoFilter ref="B3:D40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="B6:D47" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="B6:D47"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="level1" dataDxfId="9"/>
-    <tableColumn id="2" name="level2" dataDxfId="8"/>
-    <tableColumn id="3" name="memo" dataDxfId="7"/>
+    <tableColumn id="1" name="level1" dataDxfId="12"/>
+    <tableColumn id="2" name="level2" dataDxfId="11"/>
+    <tableColumn id="3" name="memo" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル3" displayName="テーブル3" ref="F3:H16" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="F3:H16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル3" displayName="テーブル3" ref="F6:H25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="F6:H25"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="level1" dataDxfId="4"/>
-    <tableColumn id="2" name="level2" dataDxfId="3"/>
-    <tableColumn id="3" name="memo" dataDxfId="2"/>
+    <tableColumn id="1" name="level1" dataDxfId="7"/>
+    <tableColumn id="2" name="level2" dataDxfId="6"/>
+    <tableColumn id="3" name="memo" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル32" displayName="テーブル32" ref="J6:L23" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="J6:L23"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="level1" dataDxfId="2"/>
+    <tableColumn id="2" name="level2" dataDxfId="1"/>
+    <tableColumn id="3" name="memo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7625,8 +8127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F31" workbookViewId="0">
-      <selection activeCell="AC59" sqref="AC59"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AA37" sqref="AA37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7639,10 +8141,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H40"/>
+  <dimension ref="B2:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7653,387 +8155,523 @@
     <col min="6" max="6" width="18.125" customWidth="1"/>
     <col min="7" max="7" width="16.375" customWidth="1"/>
     <col min="8" max="8" width="32.75" customWidth="1"/>
+    <col min="10" max="10" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>68</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="D7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="H8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="F9" t="s">
-        <v>63</v>
-      </c>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="3"/>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="H10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
-        <v>43</v>
-      </c>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="F12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="3"/>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="H14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="3"/>
+      <c r="F16" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3"/>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" t="s">
-        <v>66</v>
-      </c>
+      <c r="F19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>36</v>
-      </c>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="3"/>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="D22" s="3"/>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3"/>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>31</v>
-      </c>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>51</v>
-      </c>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="3"/>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>48</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="3"/>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>79</v>
-      </c>
+    <row r="36" spans="2:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B38" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+    <row r="38" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
-        <v>73</v>
-      </c>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D47" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/RANK_CMS(CO_201205--)/01_概要設計/システム設計.xlsx
+++ b/RANK_CMS(CO_201205--)/01_概要設計/システム設計.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="113">
   <si>
     <t>システム設計書 目次</t>
     <rPh sb="4" eb="7">
@@ -935,6 +935,152 @@
     <t>公式URL</t>
     <rPh sb="0" eb="2">
       <t>コウシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新性</t>
+    <rPh sb="0" eb="3">
+      <t>コウシンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>▲</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>◎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頻繁に更新される</t>
+    <rPh sb="0" eb="2">
+      <t>ヒンパン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月次程度で更新される</t>
+    <rPh sb="0" eb="2">
+      <t>ゲツジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半期に一回程度更新される</t>
+    <rPh sb="0" eb="2">
+      <t>ハンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年に１回も更新されない。</t>
+    <rPh sb="0" eb="1">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10年は更新されない。</t>
+    <rPh sb="2" eb="3">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>【キャンペーン】</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保有サービス</t>
+    <rPh sb="0" eb="2">
+      <t>ホユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショッピングモール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公共料金等</t>
+    <rPh sb="0" eb="2">
+      <t>コウキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紛失盗難等サポート</t>
+    <rPh sb="0" eb="2">
+      <t>フンシツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウナン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加盟店情報</t>
+    <rPh sb="0" eb="2">
+      <t>カメイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -987,7 +1133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -997,16 +1143,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="22">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -7636,32 +7809,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="B6:D47" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="B6:D47"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="level1" dataDxfId="12"/>
-    <tableColumn id="2" name="level2" dataDxfId="11"/>
-    <tableColumn id="3" name="memo" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="B6:E47" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="B6:E47"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="level1" dataDxfId="19"/>
+    <tableColumn id="2" name="level2" dataDxfId="7"/>
+    <tableColumn id="4" name="更新性" dataDxfId="5"/>
+    <tableColumn id="3" name="memo" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル3" displayName="テーブル3" ref="F6:H25" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="F6:H25"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="level1" dataDxfId="7"/>
-    <tableColumn id="2" name="level2" dataDxfId="6"/>
-    <tableColumn id="3" name="memo" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="テーブル3" displayName="テーブル3" ref="G6:J30" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="G6:J30"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="level1" dataDxfId="16"/>
+    <tableColumn id="2" name="level2" dataDxfId="10"/>
+    <tableColumn id="4" name="列1" dataDxfId="8"/>
+    <tableColumn id="3" name="memo" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル32" displayName="テーブル32" ref="J6:L23" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="J6:L23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル32" displayName="テーブル32" ref="L6:N23" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="L6:N23"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="level1" dataDxfId="13"/>
+    <tableColumn id="2" name="level2" dataDxfId="12"/>
+    <tableColumn id="3" name="memo" dataDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="テーブル325" displayName="テーブル325" ref="P6:R23" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="P6:R23"/>
   <tableColumns count="3">
     <tableColumn id="1" name="level1" dataDxfId="2"/>
     <tableColumn id="2" name="level2" dataDxfId="1"/>
@@ -8127,7 +8314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="AA37" sqref="AA37"/>
     </sheetView>
   </sheetViews>
@@ -8141,537 +8328,813 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L47"/>
+  <dimension ref="B2:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="40.125" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
-    <col min="8" max="8" width="32.75" customWidth="1"/>
-    <col min="10" max="10" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="40.125" customWidth="1"/>
+    <col min="7" max="7" width="18.125" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="7.875" customWidth="1"/>
+    <col min="10" max="10" width="32.75" customWidth="1"/>
+    <col min="12" max="12" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.375" customWidth="1"/>
+    <col min="18" max="18" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="3"/>
+      <c r="G5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="L5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="P6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="D7" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="G7" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
+      <c r="I7" s="5"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
       <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="I8" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="I9" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="I10" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
       <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="D11" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
       <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="5"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
       <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="3"/>
+      <c r="D13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="5"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
       <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="3"/>
+      <c r="D14" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="5"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>84</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="I15" s="5"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="F16" t="s">
-        <v>63</v>
+      <c r="D16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="D17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="H17" s="3"/>
+      <c r="I17" s="5"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
       <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
       <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="D19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
       <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="D20" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="3"/>
+      <c r="G21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="6"/>
       <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" t="s">
+      <c r="D22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
       <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="D23" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
       <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="D24" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="H24" s="3"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J26" s="3"/>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B28" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="3"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="3"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
       <c r="C32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="G33" s="6" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
       <c r="C34" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="G34" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="G35" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H35" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="36" spans="2:6" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="3"/>
+      <c r="G36" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="37" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F37" t="s">
-        <v>67</v>
+      <c r="G37" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="38" spans="2:6" ht="27" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:8" ht="27" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
       <c r="C38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="G38" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="D42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="G42" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B45" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
